--- a/troop_data.xlsx
+++ b/troop_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chirag.a.tiwari\Desktop\Project\Scrapping_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A18273-1C7A-485A-97B8-1814A2C8D5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01801B2-44F2-4C3F-9E76-90520E8C9FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="449">
   <si>
     <t>Card</t>
   </si>
@@ -262,18 +262,9 @@
     <t>Turns into a cannon upon losing its shield</t>
   </si>
   <si>
-    <t>Cursed Hog</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>Dark Prince</t>
   </si>
   <si>
@@ -379,15 +370,6 @@
     <t>274</t>
   </si>
   <si>
-    <t>Elixir Blob</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -412,15 +394,6 @@
     <t>Elixir Golemite</t>
   </si>
   <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>Spawns elixir blob on death</t>
-  </si>
-  <si>
     <t>Executioner</t>
   </si>
   <si>
@@ -586,24 +559,6 @@
     <t>224 (Death)</t>
   </si>
   <si>
-    <t>Golemite</t>
-  </si>
-  <si>
-    <t>1,040</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>19.6</t>
-  </si>
-  <si>
-    <t>99 (Death)</t>
-  </si>
-  <si>
-    <t>0.25 (Melee: Short)</t>
-  </si>
-  <si>
     <t>Guards</t>
   </si>
   <si>
@@ -721,12 +676,6 @@
     <t>42</t>
   </si>
   <si>
-    <t>Lava Pup</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
     <t>Lumberjack</t>
   </si>
   <si>
@@ -1396,121 +1345,41 @@
     <t>4 Every 7 seconds</t>
   </si>
   <si>
-    <t>Card Level</t>
-  </si>
-  <si>
-    <t>Number of Cards Required for Upgrade^</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Rare</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1,500</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>3,000</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>5,000</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>50,000 Elite Wild Cards</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>12,087</t>
-  </si>
-  <si>
-    <t>Gold Required for Upgrade</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>4,000</t>
-  </si>
-  <si>
-    <t>8,000</t>
-  </si>
-  <si>
-    <t>15,000</t>
-  </si>
-  <si>
-    <t>35,000</t>
-  </si>
-  <si>
-    <t>75,000</t>
-  </si>
-  <si>
-    <t>100,000</t>
-  </si>
-  <si>
-    <t>240,625</t>
-  </si>
-  <si>
-    <t>XP Gained from Upgrade</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>5,800</t>
+    <t>Defensive Building</t>
+  </si>
+  <si>
+    <t>Passive Buildings</t>
+  </si>
+  <si>
+    <t>Spawners</t>
+  </si>
+  <si>
+    <t>Damaging Spells</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1521,7 +1390,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1529,30 +1398,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1568,6 +1419,84 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AA43065-232A-4EF6-92F9-96C050B968E8}" name="Table1" displayName="Table1" ref="A2:J81" totalsRowShown="0">
+  <autoFilter ref="A2:J81" xr:uid="{1AA43065-232A-4EF6-92F9-96C050B968E8}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{C71B69C2-F86E-45D0-882B-A56977546709}" name="Card"/>
+    <tableColumn id="2" xr3:uid="{35DADA67-ACB7-48E4-AA5C-2987587BC60C}" name="Cost"/>
+    <tableColumn id="3" xr3:uid="{2EA2DB7C-0B70-4192-A198-B899B50B0450}" name="Health (+Shield)"/>
+    <tableColumn id="4" xr3:uid="{F7874935-8864-4B8A-859D-87517E34ADC9}" name="Damage"/>
+    <tableColumn id="5" xr3:uid="{12D1D296-6315-4C47-947C-69C5B0F4114F}" name="Hit Speed (seconds)"/>
+    <tableColumn id="6" xr3:uid="{AF09903A-32A0-4491-9D9B-F4D4F417C640}" name="Damage per Second"/>
+    <tableColumn id="7" xr3:uid="{299A3459-7CC9-44DB-B2CA-30A595A6B199}" name="Spawn/Death Damage"/>
+    <tableColumn id="8" xr3:uid="{F1C261D7-653A-4DAA-B743-C42837BCEAAB}" name="Range"/>
+    <tableColumn id="9" xr3:uid="{C698F2CC-F118-4116-BA10-C8ED15B45C53}" name="Count"/>
+    <tableColumn id="10" xr3:uid="{D06EF6BC-F835-496B-A10C-C13893DE5F14}" name="Special"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{77A80086-0455-403B-BDD5-A682F6AAAFB0}" name="Table2" displayName="Table2" ref="A87:H94" totalsRowShown="0">
+  <autoFilter ref="A87:H94" xr:uid="{77A80086-0455-403B-BDD5-A682F6AAAFB0}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3C89ADFE-D343-45CA-B42E-E57549756583}" name="Card"/>
+    <tableColumn id="2" xr3:uid="{C30EC5C9-E57F-45AD-BF4C-D4F221936071}" name="Cost"/>
+    <tableColumn id="3" xr3:uid="{66405770-0805-4E26-9C3A-F425B73DDD74}" name="Health"/>
+    <tableColumn id="4" xr3:uid="{FEEB9CF2-BA4E-4CDB-A962-C4CD43EA3EB6}" name="Lifetime"/>
+    <tableColumn id="5" xr3:uid="{4EB0A796-2DB0-4FCE-9883-75FFA3943980}" name="Damage"/>
+    <tableColumn id="6" xr3:uid="{21CC781D-2013-4E84-B16D-A5249AB7C124}" name="Hit Speed"/>
+    <tableColumn id="7" xr3:uid="{CFA6C139-7E4B-4A48-8D82-56F29CABD5DA}" name="Damage per Second"/>
+    <tableColumn id="8" xr3:uid="{6EBE9CA5-11A4-40DA-8EC9-EE1A7906C8D3}" name="Range"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D09C396-DEE5-4016-8A23-2DEB8596F706}" name="Table3" displayName="Table3" ref="A99:D108" totalsRowShown="0">
+  <autoFilter ref="A99:D108" xr:uid="{5D09C396-DEE5-4016-8A23-2DEB8596F706}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F771304B-40B3-4E5F-984A-A0DA6FBC2835}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{4363CB4F-A93A-4ECA-B9D7-BEAAB534A0DB}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{4797D34E-1A84-43A1-A68C-F92B09ED5EC8}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{B99D2D13-029F-4734-83AE-BCA74BEAD8A6}" name="Column4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{66AF9FCE-94FB-43B1-B3CD-FCCBC9682CB5}" name="Table4" displayName="Table4" ref="A111:E125" totalsRowShown="0">
+  <autoFilter ref="A111:E125" xr:uid="{66AF9FCE-94FB-43B1-B3CD-FCCBC9682CB5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8CC7A951-6AA8-41A5-9FF8-D33A6F0AA18D}" name="Card"/>
+    <tableColumn id="2" xr3:uid="{7B889F3D-94D0-4C62-8B32-86AA3C8F27D0}" name="Cost"/>
+    <tableColumn id="3" xr3:uid="{82C845C8-502A-4379-8C67-D670DC05E4AF}" name="Damage"/>
+    <tableColumn id="4" xr3:uid="{E027D061-CA65-4272-ADE5-39DC4D1E66F2}" name="Crown Tower Damage"/>
+    <tableColumn id="5" xr3:uid="{024D88C1-38DD-4970-A324-A4679294D795}" name="Radius"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{13B26CD4-2066-4150-AA26-D9039B7C8504}" name="Table5" displayName="Table5" ref="A130:F150" totalsRowShown="0">
+  <autoFilter ref="A130:F150" xr:uid="{13B26CD4-2066-4150-AA26-D9039B7C8504}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E5DAD3E6-163C-43A0-B14F-092BA48AB664}" name="Card"/>
+    <tableColumn id="2" xr3:uid="{084223D3-BEAC-41C2-B853-4D7B91308343}" name="Type"/>
+    <tableColumn id="3" xr3:uid="{77344E42-2645-44A4-83FD-726C4249883C}" name="Cost"/>
+    <tableColumn id="4" xr3:uid="{3EFD4630-DAD7-4584-97D3-293A3F7BA380}" name="Troop Spawned"/>
+    <tableColumn id="5" xr3:uid="{18074F7A-FA5B-4008-ABC1-7F2C81831620}" name="Spawn Speed"/>
+    <tableColumn id="6" xr3:uid="{BCAA360A-5D8F-4DB8-B407-CE390A33CCDC}" name="Maximum Spawned"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1855,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J192"/>
+  <dimension ref="A2:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,47 +1795,15 @@
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
     <col min="10" max="10" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -2325,28 +2222,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
         <v>25</v>
@@ -2357,28 +2254,28 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
@@ -2389,28 +2286,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
         <v>25</v>
@@ -2421,159 +2318,159 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
         <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
         <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s">
         <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
         <v>105</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J21" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E22" t="s">
         <v>116</v>
       </c>
-      <c r="D22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
       <c r="F22" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
@@ -2581,124 +2478,115 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="I24" t="s">
         <v>25</v>
-      </c>
-      <c r="J24" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" t="s">
         <v>19</v>
       </c>
-      <c r="C25" t="s">
-        <v>130</v>
-      </c>
-      <c r="D25" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" t="s">
-        <v>122</v>
-      </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="I25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
         <v>137</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" t="s">
-        <v>138</v>
       </c>
       <c r="I26" t="s">
         <v>25</v>
@@ -2706,28 +2594,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
         <v>139</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
       </c>
       <c r="D27" t="s">
         <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="I27" t="s">
         <v>25</v>
@@ -2738,25 +2626,25 @@
         <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
         <v>25</v>
@@ -2764,28 +2652,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
         <v>25</v>
@@ -2793,28 +2681,28 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
         <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I30" t="s">
         <v>25</v>
@@ -2822,57 +2710,57 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="G32" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
         <v>25</v>
@@ -2880,86 +2768,86 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s">
         <v>28</v>
-      </c>
-      <c r="C33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s">
-        <v>124</v>
-      </c>
-      <c r="I33" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="F34" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G34" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I35" t="s">
         <v>25</v>
@@ -2967,57 +2855,57 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I36" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B37" t="s">
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="F37" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G37" t="s">
         <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="I37" t="s">
         <v>25</v>
@@ -3025,28 +2913,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>190</v>
       </c>
       <c r="F38" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G38" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="I38" t="s">
         <v>25</v>
@@ -3054,86 +2942,86 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" t="s">
         <v>19</v>
       </c>
-      <c r="C39" t="s">
-        <v>189</v>
-      </c>
-      <c r="D39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
         <v>73</v>
       </c>
-      <c r="F39" t="s">
-        <v>191</v>
-      </c>
-      <c r="G39" t="s">
-        <v>192</v>
-      </c>
-      <c r="H39" t="s">
-        <v>193</v>
-      </c>
       <c r="I39" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I40" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
         <v>16</v>
       </c>
       <c r="H41" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s">
         <v>25</v>
@@ -3141,28 +3029,28 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
         <v>202</v>
       </c>
-      <c r="B42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>203</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>204</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
         <v>205</v>
       </c>
-      <c r="F42" t="s">
-        <v>206</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s">
         <v>25</v>
@@ -3170,28 +3058,28 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
         <v>207</v>
       </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>208</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>209</v>
       </c>
-      <c r="E43" t="s">
-        <v>19</v>
-      </c>
       <c r="F43" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="G43" t="s">
         <v>16</v>
       </c>
       <c r="H43" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="I43" t="s">
         <v>25</v>
@@ -3199,28 +3087,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F44" t="s">
         <v>213</v>
       </c>
       <c r="G44" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="H44" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I44" t="s">
         <v>25</v>
@@ -3228,28 +3116,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
         <v>215</v>
       </c>
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" t="s">
-        <v>106</v>
-      </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="I45" t="s">
         <v>25</v>
@@ -3257,28 +3145,28 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="G46" t="s">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
         <v>25</v>
@@ -3286,28 +3174,28 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
         <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="G47" t="s">
         <v>16</v>
       </c>
       <c r="H47" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="I47" t="s">
         <v>25</v>
@@ -3315,25 +3203,25 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>204</v>
       </c>
       <c r="F48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="H48" t="s">
         <v>53</v>
@@ -3344,28 +3232,28 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D49" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E49" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="I49" t="s">
         <v>25</v>
@@ -3373,57 +3261,57 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="G50" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="H50" t="s">
         <v>58</v>
       </c>
       <c r="I50" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D51" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E51" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I51" t="s">
         <v>25</v>
@@ -3431,28 +3319,28 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
         <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
       <c r="H52" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="I52" t="s">
         <v>25</v>
@@ -3460,57 +3348,57 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="D53" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
       <c r="F53" t="s">
-        <v>247</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I53" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D54" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="F54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G54" t="s">
         <v>16</v>
       </c>
       <c r="H54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I54" t="s">
         <v>25</v>
@@ -3518,28 +3406,28 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B55" t="s">
         <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="D55" t="s">
         <v>255</v>
       </c>
       <c r="E55" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="F55" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="G55" t="s">
-        <v>257</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s">
         <v>25</v>
@@ -3547,28 +3435,28 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D56" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="I56" t="s">
         <v>25</v>
@@ -3576,28 +3464,28 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="I57" t="s">
         <v>25</v>
@@ -3605,57 +3493,57 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>262</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I58" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>266</v>
+      </c>
+      <c r="D59" t="s">
         <v>267</v>
       </c>
-      <c r="B59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
         <v>268</v>
       </c>
-      <c r="D59" t="s">
+      <c r="G59" t="s">
         <v>269</v>
       </c>
-      <c r="E59" t="s">
-        <v>238</v>
-      </c>
-      <c r="F59" t="s">
-        <v>270</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
       <c r="H59" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I59" t="s">
         <v>25</v>
@@ -3663,28 +3551,28 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B60" t="s">
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="D60" t="s">
         <v>272</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="I60" t="s">
         <v>25</v>
@@ -3695,25 +3583,25 @@
         <v>273</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C61" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D61" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F61" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="I61" t="s">
         <v>25</v>
@@ -3721,28 +3609,28 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>278</v>
       </c>
       <c r="D62" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
       </c>
       <c r="H62" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="I62" t="s">
         <v>25</v>
@@ -3750,28 +3638,28 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D63" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>284</v>
       </c>
       <c r="F63" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
       </c>
       <c r="H63" t="s">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="I63" t="s">
         <v>25</v>
@@ -3779,28 +3667,28 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D64" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G64" t="s">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="I64" t="s">
         <v>25</v>
@@ -3808,57 +3696,57 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D65" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
       </c>
       <c r="H65" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>291</v>
+        <v>242</v>
       </c>
       <c r="D66" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" t="s">
         <v>292</v>
       </c>
-      <c r="E66" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66" t="s">
-        <v>293</v>
-      </c>
       <c r="G66" t="s">
         <v>16</v>
       </c>
       <c r="H66" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I66" t="s">
         <v>25</v>
@@ -3866,19 +3754,19 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>293</v>
+      </c>
+      <c r="B67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" t="s">
         <v>294</v>
       </c>
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>295</v>
       </c>
-      <c r="D67" t="s">
-        <v>153</v>
-      </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="F67" t="s">
         <v>296</v>
@@ -3887,7 +3775,7 @@
         <v>16</v>
       </c>
       <c r="H67" t="s">
-        <v>297</v>
+        <v>17</v>
       </c>
       <c r="I67" t="s">
         <v>25</v>
@@ -3895,115 +3783,115 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B68" t="s">
         <v>17</v>
       </c>
       <c r="C68" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" t="s">
+        <v>298</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s">
         <v>299</v>
       </c>
-      <c r="D68" t="s">
-        <v>300</v>
-      </c>
-      <c r="E68" t="s">
-        <v>301</v>
-      </c>
-      <c r="F68" t="s">
-        <v>302</v>
-      </c>
       <c r="G68" t="s">
         <v>16</v>
       </c>
       <c r="H68" t="s">
-        <v>303</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D69" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F69" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
       </c>
       <c r="H69" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="I69" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>295</v>
+        <v>50</v>
       </c>
       <c r="D70" t="s">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="E70" t="s">
-        <v>122</v>
+        <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>196</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
       </c>
       <c r="H70" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I70" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="D71" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="E71" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
-        <v>309</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="H71" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="I71" t="s">
         <v>25</v>
@@ -4011,115 +3899,115 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>307</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" t="s">
+        <v>308</v>
+      </c>
+      <c r="E72" t="s">
+        <v>309</v>
+      </c>
+      <c r="F72" t="s">
         <v>310</v>
       </c>
-      <c r="B72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C72" t="s">
-        <v>311</v>
-      </c>
-      <c r="D72" t="s">
-        <v>312</v>
-      </c>
-      <c r="E72" t="s">
-        <v>219</v>
-      </c>
-      <c r="F72" t="s">
-        <v>313</v>
-      </c>
       <c r="G72" t="s">
         <v>16</v>
       </c>
       <c r="H72" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I72" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B73" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="D73" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="F73" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I73" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>314</v>
+      </c>
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" t="s">
+        <v>315</v>
+      </c>
+      <c r="D74" t="s">
+        <v>316</v>
+      </c>
+      <c r="E74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" t="s">
         <v>317</v>
       </c>
-      <c r="B74" t="s">
-        <v>100</v>
-      </c>
-      <c r="C74" t="s">
-        <v>318</v>
-      </c>
-      <c r="D74" t="s">
-        <v>272</v>
-      </c>
-      <c r="E74" t="s">
-        <v>51</v>
-      </c>
-      <c r="F74" t="s">
-        <v>319</v>
-      </c>
       <c r="G74" t="s">
         <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I74" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="D75" t="s">
         <v>50</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
       </c>
       <c r="H75" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I75" t="s">
         <v>11</v>
@@ -4127,115 +4015,115 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B76" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" t="s">
+        <v>247</v>
+      </c>
+      <c r="D76" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>257</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>112</v>
+      </c>
+      <c r="I76" t="s">
         <v>11</v>
-      </c>
-      <c r="C76" t="s">
-        <v>241</v>
-      </c>
-      <c r="D76" t="s">
-        <v>272</v>
-      </c>
-      <c r="E76" t="s">
-        <v>19</v>
-      </c>
-      <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>322</v>
-      </c>
-      <c r="H76" t="s">
-        <v>323</v>
-      </c>
-      <c r="I76" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B77" t="s">
         <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="D77" t="s">
-        <v>325</v>
+        <v>147</v>
       </c>
       <c r="E77" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="F77" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
       </c>
       <c r="H77" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I77" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="D78" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>330</v>
+        <v>19</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
       </c>
       <c r="H78" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I78" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>332</v>
+        <v>188</v>
       </c>
       <c r="D79" t="s">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F79" t="s">
-        <v>334</v>
+        <v>109</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
       </c>
       <c r="H79" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="I79" t="s">
         <v>25</v>
@@ -4243,22 +4131,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>327</v>
       </c>
       <c r="E80" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>123</v>
+        <v>328</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -4267,181 +4155,41 @@
         <v>78</v>
       </c>
       <c r="I80" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="E81" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F81" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
       </c>
       <c r="H81" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="I81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>337</v>
-      </c>
-      <c r="B82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C82" t="s">
-        <v>338</v>
-      </c>
-      <c r="D82" t="s">
-        <v>156</v>
-      </c>
-      <c r="E82" t="s">
-        <v>200</v>
-      </c>
-      <c r="F82" t="s">
-        <v>339</v>
-      </c>
-      <c r="G82" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" t="s">
-        <v>53</v>
-      </c>
-      <c r="I82" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>340</v>
-      </c>
-      <c r="B83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" t="s">
-        <v>341</v>
-      </c>
-      <c r="D83" t="s">
-        <v>292</v>
-      </c>
-      <c r="E83" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" t="s">
-        <v>63</v>
-      </c>
-      <c r="I83" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>342</v>
-      </c>
-      <c r="B84" t="s">
-        <v>17</v>
-      </c>
-      <c r="C84" t="s">
-        <v>203</v>
-      </c>
-      <c r="D84" t="s">
-        <v>242</v>
-      </c>
-      <c r="E84" t="s">
-        <v>122</v>
-      </c>
-      <c r="F84" t="s">
-        <v>112</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" t="s">
-        <v>78</v>
-      </c>
-      <c r="I84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>343</v>
-      </c>
-      <c r="B85" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" t="s">
-        <v>264</v>
-      </c>
-      <c r="D85" t="s">
-        <v>344</v>
-      </c>
-      <c r="E85" t="s">
-        <v>46</v>
-      </c>
-      <c r="F85" t="s">
-        <v>345</v>
-      </c>
-      <c r="G85" t="s">
-        <v>16</v>
-      </c>
-      <c r="H85" t="s">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>346</v>
-      </c>
-      <c r="B86" t="s">
-        <v>28</v>
-      </c>
-      <c r="C86" t="s">
-        <v>347</v>
-      </c>
-      <c r="D86" t="s">
-        <v>348</v>
-      </c>
-      <c r="E86" t="s">
-        <v>97</v>
-      </c>
-      <c r="F86" t="s">
-        <v>349</v>
-      </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" t="s">
-        <v>69</v>
-      </c>
-      <c r="I86" t="s">
-        <v>11</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4452,16 +4200,16 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D87" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="E87" t="s">
         <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="G87" t="s">
         <v>5</v>
@@ -4472,42 +4220,42 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="B88" t="s">
         <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="D88" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E88" t="s">
         <v>66</v>
       </c>
       <c r="F88" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="G88" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E89" t="s">
         <v>77</v>
@@ -4516,7 +4264,7 @@
         <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="H89" t="s">
         <v>78</v>
@@ -4524,25 +4272,25 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B90" t="s">
         <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="D90" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H90" t="s">
         <v>78</v>
@@ -4550,77 +4298,77 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B91" t="s">
         <v>17</v>
       </c>
       <c r="C91" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D91" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E91" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="F91" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G91" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="B92" t="s">
         <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="D92" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E92" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
       </c>
       <c r="G92" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="B93" t="s">
         <v>28</v>
       </c>
       <c r="C93" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D93" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F93" t="s">
         <v>23</v>
       </c>
       <c r="G93" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H93" t="s">
         <v>78</v>
@@ -4628,1256 +4376,869 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D94" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="E94" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="F94" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="G94" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="H94" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" t="s">
-        <v>350</v>
-      </c>
-      <c r="D95" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>378</v>
-      </c>
-      <c r="B96" t="s">
-        <v>115</v>
-      </c>
-      <c r="C96" t="s">
-        <v>379</v>
-      </c>
-      <c r="D96" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>380</v>
-      </c>
-      <c r="B97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C97" t="s">
-        <v>381</v>
-      </c>
-      <c r="D97" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>383</v>
-      </c>
-      <c r="B98" t="s">
-        <v>28</v>
-      </c>
-      <c r="C98" t="s">
-        <v>384</v>
-      </c>
-      <c r="D98" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>446</v>
       </c>
       <c r="C99" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="D99" t="s">
-        <v>387</v>
+        <v>448</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="D100" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="C101" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="D101" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="C102" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="D102" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="D103" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>0</v>
+        <v>369</v>
       </c>
       <c r="B104" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
+        <v>344</v>
       </c>
       <c r="D104" t="s">
-        <v>396</v>
-      </c>
-      <c r="E104" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C105" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="D105" t="s">
-        <v>400</v>
-      </c>
-      <c r="E105" t="s">
-        <v>28</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C106" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
-      </c>
-      <c r="E106" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="D107" t="s">
-        <v>405</v>
-      </c>
-      <c r="E107" t="s">
-        <v>32</v>
+        <v>377</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="B108" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>407</v>
+        <v>330</v>
       </c>
       <c r="D108" t="s">
-        <v>143</v>
-      </c>
-      <c r="E108" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>408</v>
-      </c>
-      <c r="B109" t="s">
-        <v>28</v>
-      </c>
-      <c r="C109" t="s">
-        <v>74</v>
-      </c>
-      <c r="D109" t="s">
-        <v>409</v>
-      </c>
-      <c r="E109" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>410</v>
-      </c>
-      <c r="B110" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" t="s">
-        <v>45</v>
-      </c>
-      <c r="D110" t="s">
-        <v>411</v>
-      </c>
-      <c r="E110" t="s">
-        <v>73</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>380</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>382</v>
+      </c>
+      <c r="D112" t="s">
+        <v>383</v>
+      </c>
+      <c r="E112" t="s">
         <v>28</v>
       </c>
-      <c r="C112" t="s">
-        <v>416</v>
-      </c>
-      <c r="D112" t="s">
-        <v>417</v>
-      </c>
-      <c r="E112" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
       </c>
       <c r="C113" t="s">
+        <v>268</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>386</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>387</v>
+      </c>
+      <c r="D114" t="s">
+        <v>388</v>
+      </c>
+      <c r="E114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>389</v>
+      </c>
+      <c r="B115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" t="s">
+        <v>390</v>
+      </c>
+      <c r="D115" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>391</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" t="s">
+        <v>74</v>
+      </c>
+      <c r="D116" t="s">
+        <v>392</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>393</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" t="s">
         <v>45</v>
       </c>
-      <c r="D113" t="s">
-        <v>411</v>
-      </c>
-      <c r="E113" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>419</v>
-      </c>
-      <c r="B114" t="s">
-        <v>115</v>
-      </c>
-      <c r="C114" t="s">
-        <v>420</v>
-      </c>
-      <c r="D114" t="s">
-        <v>421</v>
-      </c>
-      <c r="E114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>422</v>
-      </c>
-      <c r="B115" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" t="s">
-        <v>423</v>
-      </c>
-      <c r="D115" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>424</v>
-      </c>
-      <c r="B116" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" t="s">
-        <v>425</v>
-      </c>
-      <c r="D116" t="s">
-        <v>411</v>
-      </c>
-      <c r="E116" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>427</v>
-      </c>
-      <c r="B117" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" t="s">
-        <v>228</v>
-      </c>
       <c r="D117" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="E117" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C118" t="s">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="D118" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E118" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="B119" t="s">
-        <v>429</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>1</v>
+        <v>399</v>
       </c>
       <c r="D119" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="E119" t="s">
-        <v>431</v>
-      </c>
-      <c r="F119" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>401</v>
       </c>
       <c r="B120" t="s">
-        <v>433</v>
+        <v>18</v>
       </c>
       <c r="C120" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>394</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>402</v>
+      </c>
+      <c r="B121" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121" t="s">
+        <v>403</v>
+      </c>
+      <c r="D121" t="s">
+        <v>404</v>
+      </c>
+      <c r="E121" t="s">
         <v>18</v>
       </c>
-      <c r="D120" t="s">
-        <v>43</v>
-      </c>
-      <c r="E120" t="s">
-        <v>434</v>
-      </c>
-      <c r="F120" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>378</v>
-      </c>
-      <c r="B121" t="s">
-        <v>435</v>
-      </c>
-      <c r="C121" t="s">
-        <v>100</v>
-      </c>
-      <c r="D121" t="s">
-        <v>43</v>
-      </c>
-      <c r="E121" t="s">
-        <v>436</v>
-      </c>
-      <c r="F121" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>405</v>
       </c>
       <c r="B122" t="s">
-        <v>437</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>406</v>
       </c>
       <c r="D122" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E122" t="s">
-        <v>438</v>
-      </c>
-      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>407</v>
+      </c>
+      <c r="B123" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" t="s">
-        <v>437</v>
-      </c>
       <c r="C123" t="s">
+        <v>408</v>
+      </c>
+      <c r="D123" t="s">
+        <v>394</v>
+      </c>
+      <c r="E123" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>410</v>
+      </c>
+      <c r="B124" t="s">
         <v>11</v>
       </c>
-      <c r="D123" t="s">
-        <v>439</v>
-      </c>
-      <c r="E123" t="s">
-        <v>440</v>
-      </c>
-      <c r="F123" t="s">
+      <c r="C124" t="s">
+        <v>213</v>
+      </c>
+      <c r="D124" t="s">
+        <v>394</v>
+      </c>
+      <c r="E124" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>411</v>
+      </c>
+      <c r="B125" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>129</v>
-      </c>
-      <c r="B124" t="s">
-        <v>437</v>
-      </c>
-      <c r="C124" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" t="s">
-        <v>441</v>
-      </c>
-      <c r="E124" t="s">
-        <v>440</v>
-      </c>
-      <c r="F124" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>383</v>
-      </c>
-      <c r="B125" t="s">
-        <v>435</v>
-      </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D125" t="s">
-        <v>442</v>
+        <v>394</v>
       </c>
       <c r="E125" t="s">
-        <v>443</v>
-      </c>
-      <c r="F125" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>444</v>
-      </c>
-      <c r="B126" t="s">
-        <v>433</v>
-      </c>
-      <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s">
-        <v>175</v>
-      </c>
-      <c r="E126" t="s">
-        <v>445</v>
-      </c>
-      <c r="F126" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>386</v>
-      </c>
-      <c r="B127" t="s">
-        <v>435</v>
-      </c>
-      <c r="C127" t="s">
-        <v>28</v>
-      </c>
-      <c r="D127" t="s">
-        <v>159</v>
-      </c>
-      <c r="E127" t="s">
-        <v>440</v>
-      </c>
-      <c r="F127" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>388</v>
-      </c>
-      <c r="B128" t="s">
-        <v>435</v>
-      </c>
-      <c r="C128" t="s">
-        <v>28</v>
-      </c>
-      <c r="D128" t="s">
-        <v>175</v>
-      </c>
-      <c r="E128" t="s">
-        <v>446</v>
-      </c>
-      <c r="F128" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>171</v>
-      </c>
-      <c r="B129" t="s">
-        <v>437</v>
-      </c>
-      <c r="C129" t="s">
-        <v>115</v>
-      </c>
-      <c r="D129" t="s">
-        <v>335</v>
-      </c>
-      <c r="E129" t="s">
-        <v>440</v>
-      </c>
-      <c r="F129" t="s">
-        <v>18</v>
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>335</v>
+        <v>413</v>
       </c>
       <c r="E130" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="F130" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>182</v>
+        <v>384</v>
       </c>
       <c r="B131" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="C131" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>449</v>
+        <v>43</v>
       </c>
       <c r="E131" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>450</v>
+        <v>361</v>
       </c>
       <c r="B132" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C132" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="D132" t="s">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="E132" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="F132" t="s">
-        <v>452</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C133" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D133" t="s">
-        <v>453</v>
+        <v>43</v>
       </c>
       <c r="E133" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="F133" t="s">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="B134" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>49</v>
+        <v>422</v>
       </c>
       <c r="E134" t="s">
-        <v>454</v>
+        <v>423</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>392</v>
+        <v>123</v>
       </c>
       <c r="B135" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C135" t="s">
         <v>19</v>
       </c>
       <c r="D135" t="s">
-        <v>282</v>
+        <v>424</v>
       </c>
       <c r="E135" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="F135" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="B136" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D136" t="s">
-        <v>320</v>
+        <v>425</v>
       </c>
       <c r="E136" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="F136" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="B137" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>320</v>
+        <v>166</v>
       </c>
       <c r="E137" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="F137" t="s">
-        <v>387</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="B138" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D138" t="s">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="E138" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="B139" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D139" t="s">
-        <v>317</v>
+        <v>166</v>
       </c>
       <c r="E139" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F139" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>458</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
-        <v>459</v>
+        <v>420</v>
+      </c>
+      <c r="C140" t="s">
+        <v>112</v>
+      </c>
+      <c r="D140" t="s">
+        <v>318</v>
+      </c>
+      <c r="E140" t="s">
+        <v>423</v>
+      </c>
+      <c r="F140" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>460</v>
+        <v>373</v>
       </c>
       <c r="B141" t="s">
-        <v>461</v>
+        <v>418</v>
+      </c>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" t="s">
+        <v>318</v>
+      </c>
+      <c r="E141" t="s">
+        <v>430</v>
+      </c>
+      <c r="F141" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="B142" t="s">
-        <v>25</v>
+        <v>420</v>
+      </c>
+      <c r="C142" t="s">
+        <v>174</v>
+      </c>
+      <c r="D142" t="s">
+        <v>432</v>
+      </c>
+      <c r="E142" t="s">
+        <v>423</v>
+      </c>
+      <c r="F142" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>18</v>
+        <v>433</v>
       </c>
       <c r="B143" t="s">
-        <v>18</v>
+        <v>416</v>
+      </c>
+      <c r="C143" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" t="s">
+        <v>303</v>
+      </c>
+      <c r="E143" t="s">
+        <v>434</v>
+      </c>
+      <c r="F143" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>214</v>
+      </c>
+      <c r="B144" t="s">
+        <v>420</v>
+      </c>
+      <c r="C144" t="s">
+        <v>97</v>
+      </c>
+      <c r="D144" t="s">
+        <v>436</v>
+      </c>
+      <c r="E144" t="s">
+        <v>423</v>
+      </c>
+      <c r="F144" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" t="s">
+        <v>420</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>49</v>
+      </c>
+      <c r="E145" t="s">
+        <v>437</v>
+      </c>
+      <c r="F145" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>375</v>
+      </c>
+      <c r="B146" t="s">
+        <v>420</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" t="s">
+        <v>265</v>
+      </c>
+      <c r="E146" t="s">
+        <v>438</v>
+      </c>
+      <c r="F146" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>304</v>
+      </c>
+      <c r="B147" t="s">
+        <v>420</v>
+      </c>
+      <c r="C147" t="s">
         <v>11</v>
       </c>
-      <c r="B144" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>28</v>
-      </c>
-      <c r="B145" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="D147" t="s">
+        <v>303</v>
+      </c>
+      <c r="E147" t="s">
+        <v>423</v>
+      </c>
+      <c r="F147" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>378</v>
+      </c>
+      <c r="B148" t="s">
+        <v>418</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>303</v>
+      </c>
+      <c r="E148" t="s">
+        <v>439</v>
+      </c>
+      <c r="F148" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>325</v>
+      </c>
+      <c r="B149" t="s">
+        <v>420</v>
+      </c>
+      <c r="C149" t="s">
         <v>17</v>
       </c>
-      <c r="B146" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>115</v>
-      </c>
-      <c r="B147" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>100</v>
-      </c>
-      <c r="B148" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>183</v>
-      </c>
-      <c r="B149" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>303</v>
+      </c>
+      <c r="E149" t="s">
+        <v>440</v>
+      </c>
+      <c r="F149" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>297</v>
+        <v>405</v>
       </c>
       <c r="B150" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>462</v>
-      </c>
-      <c r="B151" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>448</v>
-      </c>
-      <c r="B152" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>468</v>
-      </c>
-      <c r="B153" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>470</v>
-      </c>
-      <c r="B154" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>472</v>
-      </c>
-      <c r="B155" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>474</v>
-      </c>
-      <c r="B156" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>476</v>
-      </c>
-      <c r="B157" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>458</v>
-      </c>
-      <c r="B158" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>460</v>
-      </c>
-      <c r="B159" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>25</v>
-      </c>
-      <c r="B160" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>18</v>
-      </c>
-      <c r="B161" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+        <v>416</v>
+      </c>
+      <c r="C150" t="s">
         <v>11</v>
       </c>
-      <c r="B162" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>28</v>
-      </c>
-      <c r="B163" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>17</v>
-      </c>
-      <c r="B164" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>115</v>
-      </c>
-      <c r="B165" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>100</v>
-      </c>
-      <c r="B166" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>183</v>
-      </c>
-      <c r="B167" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>297</v>
-      </c>
-      <c r="B168" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>462</v>
-      </c>
-      <c r="B169" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>448</v>
-      </c>
-      <c r="B170" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>468</v>
-      </c>
-      <c r="B171" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>470</v>
-      </c>
-      <c r="B172" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>472</v>
-      </c>
-      <c r="B173" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>474</v>
-      </c>
-      <c r="B174" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>476</v>
-      </c>
-      <c r="B175" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>458</v>
-      </c>
-      <c r="B176" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>460</v>
-      </c>
-      <c r="B177" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>25</v>
-      </c>
-      <c r="B178" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>18</v>
-      </c>
-      <c r="B179" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>11</v>
-      </c>
-      <c r="B180" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>28</v>
-      </c>
-      <c r="B181" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>17</v>
-      </c>
-      <c r="B182" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>115</v>
-      </c>
-      <c r="B183" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>100</v>
-      </c>
-      <c r="B184" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>183</v>
-      </c>
-      <c r="B185" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>297</v>
-      </c>
-      <c r="B186" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>462</v>
-      </c>
-      <c r="B187" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>448</v>
-      </c>
-      <c r="B188" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>468</v>
-      </c>
-      <c r="B189" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>470</v>
-      </c>
-      <c r="B190" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>472</v>
-      </c>
-      <c r="B191" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>476</v>
-      </c>
-      <c r="B192" t="s">
-        <v>490</v>
+      <c r="D150" t="s">
+        <v>300</v>
+      </c>
+      <c r="E150" t="s">
+        <v>417</v>
+      </c>
+      <c r="F150" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>